--- a/toolbox_data/parsers/hyd_parser.xlsx
+++ b/toolbox_data/parsers/hyd_parser.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="0" windowWidth="32840" windowHeight="22680" tabRatio="500"/>
+    <workbookView xWindow="4860" yWindow="0" windowWidth="35840" windowHeight="22440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pp_import_matrix.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="162">
   <si>
     <t>Node level</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Key</t>
   </si>
   <si>
-    <t>Short name</t>
-  </si>
-  <si>
     <t>English name</t>
   </si>
   <si>
@@ -42,15 +39,6 @@
     <t>INFO</t>
   </si>
   <si>
-    <t>Dataset</t>
-  </si>
-  <si>
-    <t>Monitoringyears</t>
-  </si>
-  <si>
-    <t>Import matrix column</t>
-  </si>
-  <si>
     <t>Visit</t>
   </si>
   <si>
@@ -276,9 +264,6 @@
     <t>$Float('WADEP')</t>
   </si>
   <si>
-    <t>copyVariable()</t>
-  </si>
-  <si>
     <t>FUNCTION Variable</t>
   </si>
   <si>
@@ -360,153 +345,6 @@
     <t>ICEOB</t>
   </si>
   <si>
-    <t>SECCI</t>
-  </si>
-  <si>
-    <t>Q_SECCI</t>
-  </si>
-  <si>
-    <t>TEMP</t>
-  </si>
-  <si>
-    <t>Q_TEMP</t>
-  </si>
-  <si>
-    <t>PSALA</t>
-  </si>
-  <si>
-    <t>Q_PSALA</t>
-  </si>
-  <si>
-    <t>CTD_TEMP</t>
-  </si>
-  <si>
-    <t>Q_CTD_TEMP</t>
-  </si>
-  <si>
-    <t>CTD_SALT</t>
-  </si>
-  <si>
-    <t>Q_CTD_SALT</t>
-  </si>
-  <si>
-    <t>DOXY</t>
-  </si>
-  <si>
-    <t>Q_DOXY</t>
-  </si>
-  <si>
-    <t>CTD_SYRGAS</t>
-  </si>
-  <si>
-    <t>Q_CTD_SYRGAS</t>
-  </si>
-  <si>
-    <t>HSUL</t>
-  </si>
-  <si>
-    <t>Q_HSUL</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
-    <t>Q_PH</t>
-  </si>
-  <si>
-    <t>ALKY</t>
-  </si>
-  <si>
-    <t>Q_ALKY</t>
-  </si>
-  <si>
-    <t>PHOS</t>
-  </si>
-  <si>
-    <t>Q_PHOS</t>
-  </si>
-  <si>
-    <t>PTOT</t>
-  </si>
-  <si>
-    <t>Q_PTOT</t>
-  </si>
-  <si>
-    <t>NTRI</t>
-  </si>
-  <si>
-    <t>Q_NTRI</t>
-  </si>
-  <si>
-    <t>NTRA</t>
-  </si>
-  <si>
-    <t>Q_NTRA</t>
-  </si>
-  <si>
-    <t>NTRZ</t>
-  </si>
-  <si>
-    <t>Q_NTRZ</t>
-  </si>
-  <si>
-    <t>AMON</t>
-  </si>
-  <si>
-    <t>Q_AMON</t>
-  </si>
-  <si>
-    <t>NTOT</t>
-  </si>
-  <si>
-    <t>Q_NTOT</t>
-  </si>
-  <si>
-    <t>SIO3-SI</t>
-  </si>
-  <si>
-    <t>Q_SIO3-SI</t>
-  </si>
-  <si>
-    <t>HUMUS</t>
-  </si>
-  <si>
-    <t>Q_HUMUS</t>
-  </si>
-  <si>
-    <t>CPHL</t>
-  </si>
-  <si>
-    <t>Q_CPHL</t>
-  </si>
-  <si>
-    <t>DOC</t>
-  </si>
-  <si>
-    <t>Q_DOC</t>
-  </si>
-  <si>
-    <t>POC</t>
-  </si>
-  <si>
-    <t>Q_POC</t>
-  </si>
-  <si>
-    <t>TOC</t>
-  </si>
-  <si>
-    <t>Q_TOC</t>
-  </si>
-  <si>
-    <t>PON</t>
-  </si>
-  <si>
-    <t>Q_PON</t>
-  </si>
-  <si>
-    <t>Tabellhuvud HYD-MATRIX:</t>
-  </si>
-  <si>
     <t>$Text('DEPH')</t>
   </si>
   <si>
@@ -555,81 +393,9 @@
     <t>$Text('ICEOB')</t>
   </si>
   <si>
-    <t xml:space="preserve">$Text('SDATE')+u':'+$Text('STATN')+u':'+$Text('STNNO') </t>
-  </si>
-  <si>
-    <t>p='TEMP', v=$Float(u'TEMP'), u=u'°C', q=$Text(u'Q_TEMP')</t>
-  </si>
-  <si>
-    <t>p='CTD_TEMP', v=$Float(u'CTD_TEMP'), u=u'°C', q=$Text(u'Q_CTD_TEMP')</t>
-  </si>
-  <si>
-    <t>p='PSALA', v=$Float(u'PSALA'), u=u'', q=$Text(u'Q_PSALA')</t>
-  </si>
-  <si>
-    <t>p='CTD_SALT', v=$Float(u'CTD_SALT'), u=u'', q=$Text(u'Q_CTD_SALT')</t>
-  </si>
-  <si>
-    <t>p='DOXY', v=$Float(u'DOXY'), u=u'ml/l', q=$Text(u'Q_DOXY')</t>
-  </si>
-  <si>
-    <t>p='CTD_SYRGAS', v=$Float(u'CTD_SYRGAS'), u=u'ml/l', q=$Text(u'Q_CTD_SYRGAS')</t>
-  </si>
-  <si>
-    <t>p='HSUL', v=$Float(u'HSUL'), u=u'µmol/l', q=$Text(u'Q_HSUL')</t>
-  </si>
-  <si>
-    <t>p='PHOS', v=$Float(u'PHOS'), u=u'µmol/l', q=$Text(u'Q_PHOS')</t>
-  </si>
-  <si>
-    <t>p='PTOT', v=$Float(u'PTOT'), u=u'µmol/l', q=$Text(u'Q_PTOT')</t>
-  </si>
-  <si>
-    <t>p='NTRI', v=$Float(u'NTRI'), u=u'µmol/l', q=$Text(u'Q_NTRI')</t>
-  </si>
-  <si>
-    <t>p='NTRA', v=$Float(u'NTRA'), u=u'µmol/l', q=$Text(u'Q_NTRA')</t>
-  </si>
-  <si>
-    <t>p='NTRZ', v=$Float(u'NTRZ'), u=u'µmol/l', q=$Text(u'Q_NTRZ')</t>
-  </si>
-  <si>
-    <t>p='NTOT', v=$Float(u'NTOT'), u=u'µmol/l', q=$Text(u'Q_NTOT')</t>
-  </si>
-  <si>
-    <t>p='DOC', v=$Float(u'DOC'), u=u'µmol/l', q=$Text(u'Q_DOC')</t>
-  </si>
-  <si>
-    <t>p='POC', v=$Float(u'POC'), u=u'µmol/l', q=$Text(u'Q_POC')</t>
-  </si>
-  <si>
-    <t>p='TOC', v=$Float(u'TOC'), u=u'mg/l', q=$Text(u'Q_TOC')</t>
-  </si>
-  <si>
-    <t>p='PON', v=$Float(u'PON'), u=u'µmol/l', q=$Text(u'Q_PON')</t>
-  </si>
-  <si>
-    <t>p='CPHL', v=$Float(u'CPHL'), u=u'µg/l', q=$Text(u'Q_CPHL')</t>
-  </si>
-  <si>
-    <t>p='SIO3-SI', v=$Float(u'SIO3-SI'), u=u'', q=$Text(u'Q_SIO3-SI')</t>
-  </si>
-  <si>
-    <t>p='AMON', v=$Float(u'AMON'), u=u'', q=$Text(u'Q_AMON')</t>
-  </si>
-  <si>
-    <t>p='ALKY', v=$Float(u'ALKY'), u=u'mmol/l', q=$Text(u'Q_ALKY')</t>
-  </si>
-  <si>
-    <t>p='PH', v=$Float(u'PH'), u=u'', q=$Text(u'Q_PH')</t>
-  </si>
-  <si>
     <t>HYD export</t>
   </si>
   <si>
-    <t>p='HUMUS', v=$Float(u'HUMUS'), u=u'mg/l', q=$Text(u'Q_HUMUS')</t>
-  </si>
-  <si>
     <t>HYD export short</t>
   </si>
   <si>
@@ -649,6 +415,96 @@
   </si>
   <si>
     <t>First column</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>$Text('MYEAR') + u':' + $Text('SHIPC') + u':' + $Text('SMPNO') + u':' + $Text('STNNO')</t>
+  </si>
+  <si>
+    <t>$Text('SDATE')+u':'+$Text('STATN')+u':'+$Text('STNNO') + u':' + $Text('STNNO')</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='TEMP', v=$Float(u'TEMP'), u=u'°C', q=$Text(u'Q_TEMP'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='PON', v=$Float(u'PON'), u=u'µmol/l', q=$Text(u'Q_PON'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='TOC', v=$Float(u'TOC'), u=u'mg/l', q=$Text(u'Q_TOC'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='POC', v=$Float(u'POC'), u=u'µmol/l', q=$Text(u'Q_POC'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='DOC', v=$Float(u'DOC'), u=u'µmol/l', q=$Text(u'Q_DOC'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='CPHL', v=$Float(u'CPHL'), u=u'µg/l', q=$Text(u'Q_CPHL'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='HUMUS', v=$Float(u'HUMUS'), u=u'mg/l', q=$Text(u'Q_HUMUS'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='SIO3-SI', v=$Float(u'SIO3-SI'), u=u'', q=$Text(u'Q_SIO3-SI'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='NTOT', v=$Float(u'NTOT'), u=u'µmol/l', q=$Text(u'Q_NTOT'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='AMON', v=$Float(u'AMON'), u=u'', q=$Text(u'Q_AMON'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='NTRZ', v=$Float(u'NTRZ'), u=u'µmol/l', q=$Text(u'Q_NTRZ'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='NTRA', v=$Float(u'NTRA'), u=u'µmol/l', q=$Text(u'Q_NTRA'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='NTRI', v=$Float(u'NTRI'), u=u'µmol/l', q=$Text(u'Q_NTRI'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='PTOT', v=$Float(u'PTOT'), u=u'µmol/l', q=$Text(u'Q_PTOT'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='PHOS', v=$Float(u'PHOS'), u=u'µmol/l', q=$Text(u'Q_PHOS'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='ALKY', v=$Float(u'ALKY'), u=u'mmol/l', q=$Text(u'Q_ALKY'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='PH', v=$Float(u'PH'), u=u'', q=$Text(u'Q_PH'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='HSUL', v=$Float(u'HSUL'), u=u'µmol/l', q=$Text(u'Q_HSUL'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='CTD_SYRGAS', v=$Float(u'CTD_SYRGAS'), u=u'ml/l', q=$Text(u'Q_CTD_SYRGAS'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='DOXY', v=$Float(u'DOXY'), u=u'ml/l', q=$Text(u'Q_DOXY'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='CTD_SALT', v=$Float(u'CTD_SALT'), u=u'', q=$Text(u'Q_CTD_SALT'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='CTD_TEMP', v=$Float(u'CTD_TEMP'), u=u'°C', q=$Text(u'Q_CTD_TEMP'))</t>
+  </si>
+  <si>
+    <t>$CopyVariable(p='PSALA', v=$Float(u'PSALA'), u=u'', q=$Text(u'Q_PSALA'))</t>
+  </si>
+  <si>
+    <t>HYD import (header row=3)</t>
   </si>
 </sst>
 </file>
@@ -704,8 +560,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="141">
+  <cellStyleXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -852,7 +726,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="141">
+  <cellStyles count="159">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -923,6 +797,15 @@
     <cellStyle name="Följd hyperlänk" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -993,6 +876,15 @@
     <cellStyle name="Hyperlänk" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1322,22 +1214,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="46" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="71.1640625" customWidth="1"/>
-    <col min="8" max="8" width="30.1640625" customWidth="1"/>
+    <col min="7" max="7" width="78.1640625" customWidth="1"/>
+    <col min="8" max="8" width="71.1640625" customWidth="1"/>
     <col min="9" max="10" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1349,1204 +1241,1269 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="H1" t="s">
         <v>161</v>
       </c>
       <c r="I1" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="J1" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>178</v>
+        <v>137</v>
+      </c>
+      <c r="H4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="G8" t="s">
-        <v>206</v>
+        <v>128</v>
+      </c>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1"/>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="str">
+        <f>I11</f>
+        <v>MYEAR</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" ref="J12:J14" si="0">I12</f>
+        <v>SDATE</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="J14" t="str">
-        <f>I14</f>
-        <v>MYEAR</v>
+        <f t="shared" si="0"/>
+        <v>STATN</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" t="s">
-        <v>61</v>
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" ref="J15:J17" si="0">I15</f>
-        <v>SDATE</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
         <v>87</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
         <v>88</v>
       </c>
-      <c r="G17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v>STATN</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
         <v>102</v>
       </c>
-      <c r="G26" t="s">
-        <v>164</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="C28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
         <v>103</v>
       </c>
-      <c r="G27" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
         <v>104</v>
       </c>
-      <c r="G28" t="s">
-        <v>166</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
         <v>105</v>
       </c>
-      <c r="G29" t="s">
-        <v>167</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
         <v>106</v>
       </c>
-      <c r="G30" t="s">
-        <v>168</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" t="s">
-        <v>169</v>
-      </c>
-      <c r="I31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" t="s">
-        <v>170</v>
-      </c>
-      <c r="I32" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>134</v>
       </c>
       <c r="G33" t="s">
-        <v>171</v>
+        <v>120</v>
+      </c>
+      <c r="H33" t="s">
+        <v>120</v>
       </c>
       <c r="I33" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
       </c>
       <c r="G34" t="s">
-        <v>172</v>
+        <v>121</v>
+      </c>
+      <c r="H34" t="s">
+        <v>121</v>
       </c>
       <c r="I34" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>134</v>
       </c>
       <c r="G35" t="s">
-        <v>173</v>
+        <v>122</v>
+      </c>
+      <c r="H35" t="s">
+        <v>122</v>
       </c>
       <c r="I35" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>134</v>
       </c>
       <c r="G36" t="s">
-        <v>174</v>
-      </c>
-      <c r="I36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" t="s">
-        <v>175</v>
-      </c>
-      <c r="I37" t="s">
-        <v>99</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="H36" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J36" s="2"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>134</v>
       </c>
       <c r="G38" t="s">
-        <v>176</v>
+        <v>136</v>
+      </c>
+      <c r="H38" t="s">
+        <v>136</v>
       </c>
       <c r="I38" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>112</v>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="G39" t="s">
-        <v>177</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J39" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="H39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" t="s">
+        <v>108</v>
+      </c>
+      <c r="I40" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="B41" t="s">
-        <v>15</v>
+      <c r="C41" t="s">
+        <v>135</v>
       </c>
       <c r="G41" t="s">
-        <v>67</v>
+        <v>108</v>
+      </c>
+      <c r="H41" t="s">
+        <v>108</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="G43" t="s">
-        <v>162</v>
+        <v>65</v>
+      </c>
+      <c r="H43" t="s">
+        <v>65</v>
       </c>
       <c r="I43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="G44" t="s">
-        <v>162</v>
+        <v>66</v>
+      </c>
+      <c r="H44" t="s">
+        <v>66</v>
       </c>
       <c r="I44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="H45" t="s">
+        <v>67</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="G46" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="H46" t="s">
+        <v>68</v>
       </c>
       <c r="I46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
       </c>
+      <c r="C47" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="G47" t="s">
         <v>70</v>
       </c>
+      <c r="H47" t="s">
+        <v>70</v>
+      </c>
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
       </c>
+      <c r="C48" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="G48" t="s">
         <v>71</v>
       </c>
+      <c r="H48" t="s">
+        <v>71</v>
+      </c>
       <c r="I48" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="H49" t="s">
+        <v>69</v>
       </c>
       <c r="I49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" t="s">
-        <v>74</v>
-      </c>
-      <c r="I50" t="s">
-        <v>51</v>
+      <c r="C50" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="G51" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="H51" t="s">
+        <v>72</v>
       </c>
       <c r="I51" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="G52" t="s">
         <v>73</v>
       </c>
+      <c r="H52" t="s">
+        <v>73</v>
+      </c>
       <c r="I52" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
         <v>27</v>
       </c>
-      <c r="B54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" t="s">
-        <v>76</v>
+      <c r="C54" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="I54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="G55" t="s">
-        <v>77</v>
+        <v>109</v>
+      </c>
+      <c r="H55" t="s">
+        <v>109</v>
       </c>
       <c r="I55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" t="s">
+        <v>53</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" ref="J56:J58" si="1">I56</f>
+        <v>PARAM</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="I57" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="1"/>
+        <v>VALUE</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" t="s">
-        <v>163</v>
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="I58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="I59" t="s">
-        <v>57</v>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" ref="J59:J61" si="1">I59</f>
-        <v>PARAM</v>
+        <v>55</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="1"/>
+        <v>UNIT</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" t="s">
-        <v>33</v>
-      </c>
-      <c r="I60" t="s">
-        <v>58</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" si="1"/>
-        <v>VALUE</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" t="s">
-        <v>27</v>
-      </c>
-      <c r="B61" t="s">
-        <v>34</v>
-      </c>
-      <c r="I61" t="s">
-        <v>59</v>
-      </c>
-      <c r="J61" t="str">
-        <f t="shared" si="1"/>
-        <v>UNIT</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="H63" t="s">
-        <v>113</v>
+        <v>81</v>
+      </c>
+      <c r="G60" t="s">
+        <v>138</v>
+      </c>
+      <c r="H60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" t="s">
+        <v>160</v>
+      </c>
+      <c r="H62" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" t="s">
+        <v>159</v>
+      </c>
       <c r="H64" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G66" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="H66" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="H67" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="H68" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="H69" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G70" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="H70" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="H71" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G72" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="H72" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="H73" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>86</v>
-      </c>
-      <c r="B74" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G74" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="H74" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="H75" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>86</v>
-      </c>
-      <c r="B76" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G76" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="H77" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>86</v>
-      </c>
-      <c r="B78" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G78" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="H78" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="H79" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>86</v>
-      </c>
-      <c r="B80" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G80" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="H80" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="H81" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G82" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="H82" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="H83" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G84" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="H84" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="H85" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G86" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="H86" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="H87" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G88" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="H88" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="H89" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>86</v>
-      </c>
-      <c r="B90" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G90" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="H90" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="H91" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>86</v>
-      </c>
-      <c r="B92" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G92" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="H92" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="H93" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>86</v>
-      </c>
-      <c r="B94" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G94" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="H94" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="H95" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>86</v>
-      </c>
-      <c r="B96" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G96" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="H96" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="H97" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>86</v>
-      </c>
-      <c r="B98" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G98" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="H98" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="H99" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>86</v>
-      </c>
-      <c r="B100" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G100" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="H100" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="H101" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>86</v>
-      </c>
-      <c r="B102" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G102" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="H102" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="H103" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>86</v>
-      </c>
-      <c r="B104" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G104" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="H104" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="H105" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" t="s">
-        <v>86</v>
-      </c>
-      <c r="B106" t="s">
-        <v>85</v>
-      </c>
-      <c r="G106" t="s">
-        <v>193</v>
-      </c>
-      <c r="H106" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="H107" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
-        <v>86</v>
-      </c>
-      <c r="B108" t="s">
-        <v>85</v>
-      </c>
-      <c r="G108" t="s">
-        <v>194</v>
-      </c>
-      <c r="H108" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="H109" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="s">
-        <v>86</v>
-      </c>
-      <c r="B110" t="s">
-        <v>85</v>
-      </c>
-      <c r="G110" t="s">
-        <v>195</v>
-      </c>
-      <c r="H110" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="H111" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/toolbox_data/parsers/hyd_parser.xlsx
+++ b/toolbox_data/parsers/hyd_parser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="0" windowWidth="35840" windowHeight="22440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pp_import_matrix.txt" sheetId="1" r:id="rId1"/>
@@ -1216,9 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
